--- a/ all_values.xlsx
+++ b/ all_values.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM247"/>
+  <dimension ref="A1:CM248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44629,6 +44629,239 @@
         <v>5259.46433713912</v>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>17</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>345.1</v>
+      </c>
+      <c r="K248" t="n">
+        <v>52.48</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="inlineStr"/>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="P248" t="n">
+        <v>11.3675</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>1</v>
+      </c>
+      <c r="R248" t="n">
+        <v>596.5663999999999</v>
+      </c>
+      <c r="S248" t="n">
+        <v>1153.86</v>
+      </c>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr"/>
+      <c r="V248" t="inlineStr"/>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="X248" t="n">
+        <v>0.0898</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>399.856567452</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>112.24</v>
+      </c>
+      <c r="AB248" t="inlineStr"/>
+      <c r="AC248" t="inlineStr"/>
+      <c r="AD248" t="inlineStr"/>
+      <c r="AE248" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="AF248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>224.48</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>128.903</v>
+      </c>
+      <c r="AJ248" t="inlineStr"/>
+      <c r="AK248" t="inlineStr"/>
+      <c r="AL248" t="inlineStr"/>
+      <c r="AM248" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AN248" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>167.636160149</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>4.6365</v>
+      </c>
+      <c r="AR248" t="inlineStr"/>
+      <c r="AS248" t="inlineStr"/>
+      <c r="AT248" t="inlineStr"/>
+      <c r="AU248" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AV248" t="n">
+        <v>15.809</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>282.8586355815</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="AZ248" t="inlineStr"/>
+      <c r="BA248" t="inlineStr"/>
+      <c r="BB248" t="inlineStr"/>
+      <c r="BC248" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="BD248" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>80.42156</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="BH248" t="inlineStr"/>
+      <c r="BI248" t="inlineStr"/>
+      <c r="BJ248" t="inlineStr"/>
+      <c r="BK248" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="BL248" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM248" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="BN248" t="n">
+        <v>153.00935</v>
+      </c>
+      <c r="BO248" t="n">
+        <v>7.516</v>
+      </c>
+      <c r="BP248" t="inlineStr"/>
+      <c r="BQ248" t="inlineStr"/>
+      <c r="BR248" t="inlineStr"/>
+      <c r="BS248" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="BT248" t="n">
+        <v>2.8277</v>
+      </c>
+      <c r="BU248" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="BV248" t="n">
+        <v>82.01530075880001</v>
+      </c>
+      <c r="BW248" t="n">
+        <v>67.34</v>
+      </c>
+      <c r="BX248" t="inlineStr"/>
+      <c r="BY248" t="inlineStr"/>
+      <c r="BZ248" t="inlineStr"/>
+      <c r="CA248" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="CB248" t="n">
+        <v>11</v>
+      </c>
+      <c r="CC248" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD248" t="n">
+        <v>740.74</v>
+      </c>
+      <c r="CE248" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="CF248" t="inlineStr"/>
+      <c r="CG248" t="inlineStr"/>
+      <c r="CH248" t="inlineStr"/>
+      <c r="CI248" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="CJ248" t="n">
+        <v>10</v>
+      </c>
+      <c r="CK248" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL248" t="n">
+        <v>2238</v>
+      </c>
+      <c r="CM248" t="n">
+        <v>5310.6839739413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
